--- a/data/2025/recordings2025.xlsx
+++ b/data/2025/recordings2025.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\EFSPI\webpages\20_workshop\workshop\data\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A44352-F322-4457-9453-C71B68296AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A902D67A-D852-4354-881F-A54A5A84D221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="45" windowWidth="25755" windowHeight="15435" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$80</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Session</t>
   </si>
@@ -58,34 +58,10 @@
     <t>Short topics</t>
   </si>
   <si>
-    <t>https://youtu.be/8c5N_jRsC9k</t>
-  </si>
-  <si>
     <t>Session 8</t>
   </si>
   <si>
-    <t>https://youtu.be/bj9HOQRO-NM</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ghdTG5RBhgI</t>
-  </si>
-  <si>
-    <t>https://youtu.be/tntPz6s4xH4</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Dlr6H-w2yGI</t>
-  </si>
-  <si>
-    <t>https://youtu.be/qKxNI_Mwfcc</t>
-  </si>
-  <si>
-    <t>https://youtu.be/0Tk4WIKu3PI</t>
-  </si>
-  <si>
-    <t>https://youtu.be/5vlTfHA43GI</t>
-  </si>
-  <si>
-    <t>https://youtu.be/-sEB7t_TED8</t>
+    <t>Session 9</t>
   </si>
 </sst>
 </file>
@@ -151,8 +127,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -539,24 +515,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="115.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="115.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="115.42578125" style="2"/>
-    <col min="8" max="16384" width="115.42578125" style="3"/>
+    <col min="2" max="2" width="42.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="115.453125" style="2"/>
+    <col min="8" max="16384" width="115.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,117 +544,104 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{6463030E-2A7F-4585-A184-BAB6A37032FF}"/>
-  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/data/2025/recordings2025.xlsx
+++ b/data/2025/recordings2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A902D67A-D852-4354-881F-A54A5A84D221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE8B938-BE2F-4A61-BF45-9DF057676EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Session</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Session 4</t>
   </si>
   <si>
-    <t>Session 5</t>
-  </si>
-  <si>
     <t>Session 6</t>
   </si>
   <si>
@@ -62,6 +59,39 @@
   </si>
   <si>
     <t>Session 9</t>
+  </si>
+  <si>
+    <t>https://youtu.be/_BQ4AIGX3-A</t>
+  </si>
+  <si>
+    <t>https://youtu.be/o0d457fCRXM</t>
+  </si>
+  <si>
+    <t>https://youtu.be/2R9Whb8MWys</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Y3ZhF6swubg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/X5R_FtQgP6w</t>
+  </si>
+  <si>
+    <t>https://youtu.be/zshifHYODPU</t>
+  </si>
+  <si>
+    <t>https://youtu.be/v6hhgzLRrAM</t>
+  </si>
+  <si>
+    <t>https://youtu.be/KuFzX2OgPK4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/EDeVN2nnJRY</t>
+  </si>
+  <si>
+    <t>Session 10</t>
+  </si>
+  <si>
+    <t>https://youtu.be/AEOkQ7Kagbo</t>
   </si>
 </sst>
 </file>
@@ -520,7 +550,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="115.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -548,7 +578,9 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
@@ -558,7 +590,9 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -567,7 +601,9 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
@@ -576,7 +612,9 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -585,7 +623,9 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -594,14 +634,19 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -611,25 +656,31 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
@@ -640,8 +691,12 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A2B0F446-D650-4DC4-8EF6-53F73700AE01}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{0B035C18-7A66-4FA2-A209-1A8F5E219F25}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/data/2025/recordings2025.xlsx
+++ b/data/2025/recordings2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE8B938-BE2F-4A61-BF45-9DF057676EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C230E6BA-6C9B-4BEC-BA71-ADD0C5B10835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/2025/recordings2025.xlsx
+++ b/data/2025/recordings2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C230E6BA-6C9B-4BEC-BA71-ADD0C5B10835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CFB75D-5C46-4D0A-AD80-32832FF93E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15410" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="115.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -616,7 +616,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">

--- a/data/2025/recordings2025.xlsx
+++ b/data/2025/recordings2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CFB75D-5C46-4D0A-AD80-32832FF93E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BB11E8-12D6-4BE3-942B-00AB6AB7B5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15410" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="13395" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -553,16 +553,16 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="115.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="115.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="115.453125" style="2"/>
-    <col min="8" max="16384" width="115.453125" style="3"/>
+    <col min="2" max="2" width="42.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="115.42578125" style="2"/>
+    <col min="8" max="16384" width="115.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +574,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -616,10 +616,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -674,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
     </row>
   </sheetData>
